--- a/Static files/TransferLista.xlsx
+++ b/Static files/TransferLista.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772"/>
   </bookViews>
   <sheets>
     <sheet name="Cenovnik" sheetId="1" r:id="rId1"/>
@@ -962,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3372,8 +3372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
